--- a/backend/fms_core/tests/valid_templates/Normalization_v3_14_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Normalization_v3_14_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/tests/valid_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A6503B-05DC-6A42-AF87-F8D81A0E2482}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509621BD-CEA3-484D-A6D0-4C30C381559D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1561,7 +1561,7 @@
     <t>P24</t>
   </si>
   <si>
-    <t>Sample Initial Concentration</t>
+    <t>Initial Conc. (ng/uL)</t>
   </si>
 </sst>
 </file>
@@ -2481,15 +2481,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="32.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" customWidth="1"/>
-    <col min="8" max="10" width="26.1640625" customWidth="1"/>
-    <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="14" width="33.5" customWidth="1"/>
-    <col min="15" max="15" width="16.1640625" customWidth="1"/>
+    <col min="3" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="9" width="26.1640625" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="12" max="13" width="33.5" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
     <col min="16" max="16" width="16.5" customWidth="1"/>
     <col min="17" max="18" width="16.83203125" customWidth="1"/>
     <col min="19" max="19" width="19.1640625" customWidth="1"/>
@@ -2508,7 +2507,6 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -2518,7 +2516,6 @@
         <v>3</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:37" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -2528,7 +2525,7 @@
       <c r="AC5" s="5"/>
       <c r="AK5" s="5"/>
     </row>
-    <row r="6" spans="1:37" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -2536,17 +2533,16 @@
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="P6" s="6" t="s">
@@ -2580,40 +2576,40 @@
         <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="15" t="s">
         <v>444</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>21</v>
@@ -2644,23 +2640,23 @@
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20" t="s">
+      <c r="J8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="K8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="24"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="25">
         <v>5</v>
@@ -2689,23 +2685,23 @@
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="G9" s="28" t="s">
         <v>33</v>
       </c>
+      <c r="H9" s="29"/>
       <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="K9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="24"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="31">
         <v>5</v>
@@ -2734,26 +2730,26 @@
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="G10" s="28" t="s">
         <v>35</v>
       </c>
+      <c r="H10" s="29"/>
       <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="K10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="21" t="s">
+      <c r="L10" s="30"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="21" t="s">
         <v>36</v>
       </c>
+      <c r="O10" s="21"/>
       <c r="P10" s="31">
         <v>5</v>
       </c>
@@ -2779,23 +2775,23 @@
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="32" t="s">
+      <c r="F11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="G11" s="28" t="s">
         <v>39</v>
       </c>
+      <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="20" t="s">
+      <c r="J11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="K11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="24"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="31">
         <v>5</v>
@@ -2820,15 +2816,15 @@
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="24"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="31"/>
       <c r="Q12" s="31"/>
@@ -2843,15 +2839,15 @@
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="24"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
@@ -2866,15 +2862,15 @@
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="24"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="31"/>
       <c r="Q14" s="31"/>
@@ -2889,15 +2885,15 @@
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="24"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="31"/>
       <c r="Q15" s="31"/>
@@ -2912,15 +2908,15 @@
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="24"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="31"/>
       <c r="Q16" s="31"/>
@@ -2935,15 +2931,15 @@
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="24"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="31"/>
@@ -2958,15 +2954,15 @@
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="24"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
@@ -2981,15 +2977,15 @@
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="24"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="31"/>
@@ -3004,15 +3000,15 @@
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="24"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="31"/>
       <c r="Q20" s="31"/>
@@ -3027,15 +3023,15 @@
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="24"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="31"/>
       <c r="Q21" s="31"/>
@@ -3050,15 +3046,15 @@
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="24"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="31"/>
       <c r="Q22" s="31"/>
@@ -3073,15 +3069,15 @@
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="24"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="31"/>
       <c r="Q23" s="31"/>
@@ -3096,15 +3092,15 @@
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="24"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="31"/>
@@ -3119,15 +3115,15 @@
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="24"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="31"/>
       <c r="Q25" s="31"/>
@@ -3142,15 +3138,15 @@
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="24"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
@@ -3165,15 +3161,15 @@
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="24"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="31"/>
       <c r="Q27" s="31"/>
@@ -3188,15 +3184,15 @@
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="24"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="31"/>
       <c r="Q28" s="31"/>
@@ -3211,15 +3207,15 @@
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="24"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="31"/>
       <c r="Q29" s="31"/>
@@ -3234,15 +3230,15 @@
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="24"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="31"/>
       <c r="Q30" s="31"/>
@@ -3257,15 +3253,15 @@
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="24"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="31"/>
       <c r="Q31" s="31"/>
@@ -3280,15 +3276,15 @@
       <c r="C32" s="18"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="24"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="31"/>
       <c r="Q32" s="31"/>
@@ -3303,15 +3299,15 @@
       <c r="C33" s="18"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="24"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="31"/>
       <c r="Q33" s="31"/>
@@ -3326,15 +3322,15 @@
       <c r="C34" s="18"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="24"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="31"/>
       <c r="Q34" s="31"/>
@@ -3349,15 +3345,15 @@
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="24"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="31"/>
       <c r="Q35" s="31"/>
@@ -3372,15 +3368,15 @@
       <c r="C36" s="18"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="24"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="31"/>
       <c r="Q36" s="31"/>
@@ -3395,15 +3391,15 @@
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="24"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="31"/>
       <c r="Q37" s="31"/>
@@ -3418,15 +3414,15 @@
       <c r="C38" s="18"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="24"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="21"/>
       <c r="O38" s="21"/>
       <c r="P38" s="31"/>
       <c r="Q38" s="31"/>
@@ -3441,15 +3437,15 @@
       <c r="C39" s="18"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="24"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="31"/>
       <c r="Q39" s="31"/>
@@ -3464,15 +3460,15 @@
       <c r="C40" s="18"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="24"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="21"/>
       <c r="O40" s="21"/>
       <c r="P40" s="31"/>
       <c r="Q40" s="31"/>
@@ -3487,15 +3483,15 @@
       <c r="C41" s="18"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="24"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="31"/>
       <c r="Q41" s="31"/>
@@ -3510,15 +3506,15 @@
       <c r="C42" s="18"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="24"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="31"/>
       <c r="Q42" s="31"/>
@@ -3533,15 +3529,15 @@
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="24"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="31"/>
       <c r="Q43" s="31"/>
@@ -3556,15 +3552,15 @@
       <c r="C44" s="18"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="24"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="31"/>
       <c r="Q44" s="31"/>
@@ -3579,15 +3575,15 @@
       <c r="C45" s="18"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="24"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="31"/>
       <c r="Q45" s="31"/>
@@ -3602,15 +3598,15 @@
       <c r="C46" s="18"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="24"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="31"/>
       <c r="Q46" s="31"/>
@@ -3625,15 +3621,15 @@
       <c r="C47" s="18"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="24"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="31"/>
       <c r="Q47" s="31"/>
@@ -3648,15 +3644,15 @@
       <c r="C48" s="18"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
       <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="24"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="31"/>
       <c r="Q48" s="31"/>
@@ -3671,15 +3667,15 @@
       <c r="C49" s="18"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="24"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="21"/>
       <c r="O49" s="21"/>
       <c r="P49" s="31"/>
       <c r="Q49" s="31"/>
@@ -3694,15 +3690,15 @@
       <c r="C50" s="18"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
       <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="24"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="31"/>
       <c r="Q50" s="31"/>
@@ -3717,15 +3713,15 @@
       <c r="C51" s="18"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
       <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="24"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="21"/>
       <c r="O51" s="21"/>
       <c r="P51" s="31"/>
       <c r="Q51" s="31"/>
@@ -3740,15 +3736,15 @@
       <c r="C52" s="18"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
       <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="24"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="21"/>
       <c r="O52" s="21"/>
       <c r="P52" s="31"/>
       <c r="Q52" s="31"/>
@@ -3763,15 +3759,15 @@
       <c r="C53" s="18"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
       <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="24"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="21"/>
       <c r="O53" s="21"/>
       <c r="P53" s="31"/>
       <c r="Q53" s="31"/>
@@ -3786,15 +3782,15 @@
       <c r="C54" s="18"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
       <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="24"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="21"/>
       <c r="O54" s="21"/>
       <c r="P54" s="31"/>
       <c r="Q54" s="31"/>
@@ -3809,15 +3805,15 @@
       <c r="C55" s="18"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
       <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="24"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="21"/>
       <c r="O55" s="21"/>
       <c r="P55" s="31"/>
       <c r="Q55" s="31"/>
@@ -3832,15 +3828,15 @@
       <c r="C56" s="18"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
       <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="24"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="21"/>
       <c r="O56" s="21"/>
       <c r="P56" s="31"/>
       <c r="Q56" s="31"/>
@@ -3855,15 +3851,15 @@
       <c r="C57" s="18"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
       <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="24"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="21"/>
       <c r="O57" s="21"/>
       <c r="P57" s="31"/>
       <c r="Q57" s="31"/>
@@ -3878,15 +3874,15 @@
       <c r="C58" s="18"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
       <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="24"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="21"/>
       <c r="O58" s="21"/>
       <c r="P58" s="31"/>
       <c r="Q58" s="31"/>
@@ -3901,15 +3897,15 @@
       <c r="C59" s="18"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
       <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="24"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="21"/>
       <c r="O59" s="21"/>
       <c r="P59" s="31"/>
       <c r="Q59" s="31"/>
@@ -3924,15 +3920,15 @@
       <c r="C60" s="18"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
       <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="24"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="21"/>
       <c r="O60" s="21"/>
       <c r="P60" s="31"/>
       <c r="Q60" s="31"/>
@@ -3947,15 +3943,15 @@
       <c r="C61" s="18"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
       <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="24"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="21"/>
       <c r="O61" s="21"/>
       <c r="P61" s="31"/>
       <c r="Q61" s="31"/>
@@ -3970,15 +3966,15 @@
       <c r="C62" s="18"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
       <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="24"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="21"/>
       <c r="O62" s="21"/>
       <c r="P62" s="31"/>
       <c r="Q62" s="31"/>
@@ -3993,15 +3989,15 @@
       <c r="C63" s="18"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
       <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="24"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="21"/>
       <c r="O63" s="21"/>
       <c r="P63" s="31"/>
       <c r="Q63" s="31"/>
@@ -4016,15 +4012,15 @@
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="28"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
       <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="24"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="21"/>
       <c r="O64" s="21"/>
       <c r="P64" s="31"/>
       <c r="Q64" s="31"/>
@@ -4039,15 +4035,15 @@
       <c r="C65" s="18"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
       <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="24"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="21"/>
       <c r="O65" s="21"/>
       <c r="P65" s="31"/>
       <c r="Q65" s="31"/>
@@ -4062,15 +4058,15 @@
       <c r="C66" s="18"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
       <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="24"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="21"/>
       <c r="O66" s="21"/>
       <c r="P66" s="31"/>
       <c r="Q66" s="31"/>
@@ -4085,15 +4081,15 @@
       <c r="C67" s="18"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
       <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="24"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="21"/>
       <c r="O67" s="21"/>
       <c r="P67" s="31"/>
       <c r="Q67" s="31"/>
@@ -4108,15 +4104,15 @@
       <c r="C68" s="18"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="28"/>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
       <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="24"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="21"/>
       <c r="O68" s="21"/>
       <c r="P68" s="31"/>
       <c r="Q68" s="31"/>
@@ -4131,15 +4127,15 @@
       <c r="C69" s="18"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="28"/>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
       <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="24"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="21"/>
       <c r="O69" s="21"/>
       <c r="P69" s="31"/>
       <c r="Q69" s="31"/>
@@ -4154,15 +4150,15 @@
       <c r="C70" s="18"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="28"/>
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
       <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="24"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="21"/>
       <c r="O70" s="21"/>
       <c r="P70" s="31"/>
       <c r="Q70" s="31"/>
@@ -4177,15 +4173,15 @@
       <c r="C71" s="18"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="28"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
       <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="24"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="21"/>
       <c r="O71" s="21"/>
       <c r="P71" s="31"/>
       <c r="Q71" s="31"/>
@@ -4200,15 +4196,15 @@
       <c r="C72" s="18"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="28"/>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
       <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="24"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="21"/>
       <c r="O72" s="21"/>
       <c r="P72" s="31"/>
       <c r="Q72" s="31"/>
@@ -4223,15 +4219,15 @@
       <c r="C73" s="18"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="28"/>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
       <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="24"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="21"/>
       <c r="O73" s="21"/>
       <c r="P73" s="31"/>
       <c r="Q73" s="31"/>
@@ -4246,15 +4242,15 @@
       <c r="C74" s="18"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="28"/>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
       <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="24"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="21"/>
       <c r="O74" s="21"/>
       <c r="P74" s="31"/>
       <c r="Q74" s="31"/>
@@ -4269,15 +4265,15 @@
       <c r="C75" s="18"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="28"/>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
       <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="24"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="21"/>
       <c r="O75" s="21"/>
       <c r="P75" s="31"/>
       <c r="Q75" s="31"/>
@@ -4292,15 +4288,15 @@
       <c r="C76" s="18"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="28"/>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
       <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="24"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="21"/>
       <c r="O76" s="21"/>
       <c r="P76" s="31"/>
       <c r="Q76" s="31"/>
@@ -4315,15 +4311,15 @@
       <c r="C77" s="18"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="28"/>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
       <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="24"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="21"/>
       <c r="O77" s="21"/>
       <c r="P77" s="31"/>
       <c r="Q77" s="31"/>
@@ -4338,15 +4334,15 @@
       <c r="C78" s="18"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="28"/>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
       <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="30"/>
-      <c r="N78" s="24"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="21"/>
       <c r="O78" s="21"/>
       <c r="P78" s="31"/>
       <c r="Q78" s="31"/>
@@ -4361,15 +4357,15 @@
       <c r="C79" s="18"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="30"/>
-      <c r="N79" s="24"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="21"/>
       <c r="O79" s="21"/>
       <c r="P79" s="31"/>
       <c r="Q79" s="31"/>
@@ -4384,15 +4380,15 @@
       <c r="C80" s="18"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="28"/>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
       <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="24"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="21"/>
       <c r="O80" s="21"/>
       <c r="P80" s="31"/>
       <c r="Q80" s="31"/>
@@ -4407,15 +4403,15 @@
       <c r="C81" s="18"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="28"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
       <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="24"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="21"/>
       <c r="O81" s="21"/>
       <c r="P81" s="31"/>
       <c r="Q81" s="31"/>
@@ -4430,15 +4426,15 @@
       <c r="C82" s="18"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="28"/>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
       <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="24"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="21"/>
       <c r="O82" s="21"/>
       <c r="P82" s="31"/>
       <c r="Q82" s="31"/>
@@ -4453,15 +4449,15 @@
       <c r="C83" s="18"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
       <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="24"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="21"/>
       <c r="O83" s="21"/>
       <c r="P83" s="31"/>
       <c r="Q83" s="31"/>
@@ -4476,15 +4472,15 @@
       <c r="C84" s="18"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="28"/>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
       <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="24"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="21"/>
       <c r="O84" s="21"/>
       <c r="P84" s="31"/>
       <c r="Q84" s="31"/>
@@ -4499,15 +4495,15 @@
       <c r="C85" s="18"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="28"/>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
       <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="24"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="21"/>
       <c r="O85" s="21"/>
       <c r="P85" s="31"/>
       <c r="Q85" s="31"/>
@@ -4522,15 +4518,15 @@
       <c r="C86" s="18"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="24"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="21"/>
       <c r="O86" s="21"/>
       <c r="P86" s="31"/>
       <c r="Q86" s="31"/>
@@ -4545,15 +4541,15 @@
       <c r="C87" s="18"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="28"/>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
       <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="24"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="30"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="21"/>
       <c r="O87" s="21"/>
       <c r="P87" s="31"/>
       <c r="Q87" s="31"/>
@@ -4568,15 +4564,15 @@
       <c r="C88" s="18"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="28"/>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
       <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="30"/>
-      <c r="N88" s="24"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="21"/>
       <c r="O88" s="21"/>
       <c r="P88" s="31"/>
       <c r="Q88" s="31"/>
@@ -4591,15 +4587,15 @@
       <c r="C89" s="18"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="28"/>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
       <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="30"/>
-      <c r="N89" s="24"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="21"/>
       <c r="O89" s="21"/>
       <c r="P89" s="31"/>
       <c r="Q89" s="31"/>
@@ -4614,15 +4610,15 @@
       <c r="C90" s="18"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="28"/>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
       <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="30"/>
-      <c r="N90" s="24"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="21"/>
       <c r="O90" s="21"/>
       <c r="P90" s="31"/>
       <c r="Q90" s="31"/>
@@ -4637,15 +4633,15 @@
       <c r="C91" s="18"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="28"/>
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
       <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="24"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="21"/>
       <c r="O91" s="21"/>
       <c r="P91" s="31"/>
       <c r="Q91" s="31"/>
@@ -4660,15 +4656,15 @@
       <c r="C92" s="18"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="28"/>
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
       <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="30"/>
-      <c r="N92" s="24"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="21"/>
       <c r="O92" s="21"/>
       <c r="P92" s="31"/>
       <c r="Q92" s="31"/>
@@ -4683,15 +4679,15 @@
       <c r="C93" s="18"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="28"/>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
       <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="30"/>
-      <c r="N93" s="24"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="30"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="21"/>
       <c r="O93" s="21"/>
       <c r="P93" s="31"/>
       <c r="Q93" s="31"/>
@@ -4706,15 +4702,15 @@
       <c r="C94" s="18"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="28"/>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
       <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="30"/>
-      <c r="N94" s="24"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="30"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="21"/>
       <c r="O94" s="21"/>
       <c r="P94" s="31"/>
       <c r="Q94" s="31"/>
@@ -4729,15 +4725,15 @@
       <c r="C95" s="18"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="28"/>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
       <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="30"/>
-      <c r="N95" s="24"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="30"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="21"/>
       <c r="O95" s="21"/>
       <c r="P95" s="31"/>
       <c r="Q95" s="31"/>
@@ -4752,15 +4748,15 @@
       <c r="C96" s="18"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="28"/>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
       <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="30"/>
-      <c r="N96" s="24"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="21"/>
       <c r="O96" s="21"/>
       <c r="P96" s="31"/>
       <c r="Q96" s="31"/>
@@ -4775,15 +4771,15 @@
       <c r="C97" s="18"/>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="28"/>
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
       <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="22"/>
-      <c r="M97" s="30"/>
-      <c r="N97" s="24"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="30"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="21"/>
       <c r="O97" s="21"/>
       <c r="P97" s="31"/>
       <c r="Q97" s="31"/>
@@ -4798,15 +4794,15 @@
       <c r="C98" s="18"/>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="28"/>
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
       <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="30"/>
-      <c r="N98" s="24"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="30"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="21"/>
       <c r="O98" s="21"/>
       <c r="P98" s="31"/>
       <c r="Q98" s="31"/>
@@ -4821,15 +4817,15 @@
       <c r="C99" s="18"/>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="28"/>
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
       <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="30"/>
-      <c r="N99" s="24"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="30"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="21"/>
       <c r="O99" s="21"/>
       <c r="P99" s="31"/>
       <c r="Q99" s="31"/>
@@ -4844,15 +4840,15 @@
       <c r="C100" s="18"/>
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="28"/>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
       <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="30"/>
-      <c r="N100" s="24"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="21"/>
       <c r="O100" s="21"/>
       <c r="P100" s="31"/>
       <c r="Q100" s="31"/>
@@ -4867,15 +4863,15 @@
       <c r="C101" s="18"/>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="28"/>
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
       <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="30"/>
-      <c r="N101" s="24"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="21"/>
       <c r="O101" s="21"/>
       <c r="P101" s="31"/>
       <c r="Q101" s="31"/>
@@ -4890,15 +4886,15 @@
       <c r="C102" s="18"/>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="28"/>
       <c r="H102" s="28"/>
       <c r="I102" s="28"/>
       <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="30"/>
-      <c r="N102" s="24"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="30"/>
+      <c r="M102" s="24"/>
+      <c r="O102" s="21"/>
       <c r="P102" s="31"/>
       <c r="Q102" s="31"/>
       <c r="R102" s="31"/>
@@ -4912,15 +4908,15 @@
       <c r="C103" s="34"/>
       <c r="D103" s="35"/>
       <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="33"/>
       <c r="H103" s="33"/>
       <c r="I103" s="33"/>
       <c r="J103" s="33"/>
-      <c r="K103" s="33"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="38"/>
-      <c r="N103" s="39"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="39"/>
+      <c r="N103" s="21"/>
       <c r="O103" s="21"/>
       <c r="P103" s="40"/>
       <c r="Q103" s="40"/>
@@ -5537,16 +5533,15 @@
     <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O101 O103" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N101 N103" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"YES,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="E8:F103 I8:J103" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D8:E103 H8:I103" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D8:D102 D103" xr:uid="{C8EB0C3F-1561-264F-B504-BFADB6D61692}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -5560,7 +5555,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>N8:N103 H8:H103 C8:C103</xm:sqref>
+          <xm:sqref>M8:M103 G8:G103 C8:C103</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
@@ -5569,7 +5564,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>L8:L103</xm:sqref>
+          <xm:sqref>K8:K103</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
